--- a/sujet/sumup/resultats.xlsx
+++ b/sujet/sumup/resultats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FACHE Rémi\Documents\Programmation\JAVA\MetaHeuristique_projet\sujet\sumup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17BCF561-B64F-4A5A-9E1C-2EAA4BED0A99}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86308D67-3F53-4EAD-9E3E-8B363E42135F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{576549C1-E406-4080-845B-182BCFD95DD1}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="15336" windowHeight="8016" xr2:uid="{576549C1-E406-4080-845B-182BCFD95DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="57">
   <si>
     <t>basic</t>
   </si>
@@ -189,16 +189,458 @@
     <t>CHILD</t>
   </si>
   <si>
-    <t>PPX, méthode de remplacement:</t>
+    <r>
+      <t xml:space="preserve">Taille de la population: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,au temps ; Nombre d'enfants à chaque génération: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Probabilité de mutation des enfant: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;Nombre de Participants au tournoi: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; croisement: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPPX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; remplacement :</t>
+    </r>
   </si>
   <si>
-    <t>EPPX, méthode de remplacement:</t>
+    <r>
+      <t xml:space="preserve">Taille de la population: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,au temps ; Nombre d'enfants à chaque génération: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Probabilité de mutation des enfant: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;Nombre de Participants au tournoi: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; croisement: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPPX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; remplacement :</t>
+    </r>
   </si>
   <si>
-    <t>Taille de la population: 20 ,au temps , Nombre d'enfants à chaque génération: 16, Probabilité de mutation des enfant: 1, Nombre de Participants au tournoi: 2</t>
+    <r>
+      <t xml:space="preserve">Taille de la population: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,au temps ; Nombre d'enfants à chaque génération: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Probabilité de mutation des enfant: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;Nombre de Participants au tournoi: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; croisement: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPPX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; remplacement :</t>
+    </r>
   </si>
   <si>
-    <t>Taille de la population: 100 ,au temps , Nombre d'enfants à chaque génération: 81, Probabilité de mutation des enfant: 0,15, Nombre de Participants au tournoi: 2</t>
+    <r>
+      <t xml:space="preserve">Taille de la population: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,au temps ; Nombre d'enfants à chaque génération: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Probabilité de mutation des enfant: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;Nombre de Participants au tournoi: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; croisement: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPPX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; remplacement :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CHILD</t>
+    </r>
+  </si>
+  <si>
+    <t>Génétique</t>
   </si>
 </sst>
 </file>
@@ -208,7 +650,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,8 +658,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,8 +776,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4B32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -405,34 +873,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,39 +900,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -482,9 +908,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -495,56 +919,146 @@
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="thick">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color auto="1"/>
+        <color theme="0"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -557,6 +1071,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -571,43 +1086,81 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,6 +1169,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF4B32"/>
+      <color rgb="FFFF3232"/>
+      <color rgb="FFE08484"/>
+      <color rgb="FFFF6565"/>
       <color rgb="FFFF9B9B"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFFF6699"/>
@@ -713,9 +1270,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$Z$3:$AK$3</c:f>
+              <c:f>Feuil1!$Z$3:$AM$3</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -744,12 +1301,18 @@
                   <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>4,4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2,4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>3800</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>2,5</c:v>
                 </c:pt>
               </c:strCache>
@@ -825,9 +1388,9 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Feuil1!$Z$1:$AK$2</c:f>
+              <c:f>Feuil1!$Z$1:$AM$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>runtime</c:v>
@@ -865,6 +1428,12 @@
                   <c:pt idx="11">
                     <c:v>ecart</c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>runtime</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>ecart</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -880,9 +1449,12 @@
                     <c:v>Descente</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>Génétique</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
                     <c:v>Tabou </c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="12">
                     <c:v>Recuit</c:v>
                   </c:pt>
                 </c:lvl>
@@ -891,10 +1463,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$Z$3:$AK$3</c:f>
+              <c:f>Feuil1!$Z$3:$AM$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -923,12 +1495,18 @@
                   <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2.4</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0">
+                <c:pt idx="12" formatCode="0">
                   <c:v>3800</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1035,12 +1613,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$Z$1:$AK$2</c15:sqref>
+                          <c15:sqref>Feuil1!$Z$1:$AM$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:multiLvlStrCache>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="14"/>
                       <c:lvl>
                         <c:pt idx="0">
                           <c:v>runtime</c:v>
@@ -1078,6 +1656,12 @@
                         <c:pt idx="11">
                           <c:v>ecart</c:v>
                         </c:pt>
+                        <c:pt idx="12">
+                          <c:v>runtime</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>ecart</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -1093,9 +1677,12 @@
                           <c:v>Descente</c:v>
                         </c:pt>
                         <c:pt idx="8">
+                          <c:v>Génétique</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
                           <c:v>Tabou </c:v>
                         </c:pt>
-                        <c:pt idx="10">
+                        <c:pt idx="12">
                           <c:v>Recuit</c:v>
                         </c:pt>
                       </c:lvl>
@@ -1439,9 +2026,9 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Feuil1!$Z$1:$AK$2</c:f>
+              <c:f>Feuil1!$Z$1:$AM$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>runtime</c:v>
@@ -1479,6 +2066,12 @@
                   <c:pt idx="11">
                     <c:v>ecart</c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>runtime</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>ecart</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1494,9 +2087,12 @@
                     <c:v>Descente</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>Génétique</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
                     <c:v>Tabou </c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="12">
                     <c:v>Recuit</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1505,10 +2101,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$Z$3:$AK$3</c:f>
+              <c:f>Feuil1!$Z$3:$AM$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1537,12 +2133,18 @@
                   <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2.4</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0">
+                <c:pt idx="12" formatCode="0">
                   <c:v>3800</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2847,16 +3449,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3181,28 +3783,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6830FF52-7BC1-4B61-A997-7302A8318447}">
-  <dimension ref="A1:BH28"/>
+  <dimension ref="A1:BJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG4" workbookViewId="0">
-      <selection activeCell="AT12" sqref="AT12"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="33" max="33" width="17.33203125" customWidth="1"/>
-    <col min="34" max="34" width="13.109375" customWidth="1"/>
-    <col min="35" max="35" width="5.44140625" customWidth="1"/>
-    <col min="37" max="37" width="5.21875" customWidth="1"/>
-    <col min="38" max="38" width="12.21875" customWidth="1"/>
-    <col min="39" max="39" width="5.6640625" customWidth="1"/>
-    <col min="40" max="40" width="13.5546875" customWidth="1"/>
-    <col min="41" max="41" width="5.88671875" customWidth="1"/>
-    <col min="43" max="43" width="5.6640625" customWidth="1"/>
-    <col min="45" max="45" width="7" customWidth="1"/>
-    <col min="46" max="46" width="16.6640625" customWidth="1"/>
+    <col min="32" max="32" width="26.21875" customWidth="1"/>
+    <col min="33" max="35" width="8.21875" customWidth="1"/>
+    <col min="36" max="36" width="8" customWidth="1"/>
+    <col min="37" max="37" width="6.109375" customWidth="1"/>
+    <col min="38" max="38" width="6" customWidth="1"/>
+    <col min="39" max="39" width="7.109375" customWidth="1"/>
+    <col min="40" max="40" width="6.5546875" customWidth="1"/>
+    <col min="41" max="41" width="4.21875" customWidth="1"/>
+    <col min="42" max="42" width="6.77734375" customWidth="1"/>
+    <col min="43" max="43" width="9" customWidth="1"/>
+    <col min="44" max="44" width="16.44140625" customWidth="1"/>
+    <col min="45" max="45" width="5.6640625" customWidth="1"/>
+    <col min="46" max="46" width="3.77734375" customWidth="1"/>
+    <col min="47" max="47" width="7" customWidth="1"/>
+    <col min="48" max="48" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3242,14 +3848,14 @@
         <v>7</v>
       </c>
       <c r="U1" s="11"/>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="X1" s="12" t="s">
+      <c r="W1" s="18"/>
+      <c r="X1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="13"/>
+      <c r="Y1" s="14"/>
       <c r="Z1" t="s">
         <v>44</v>
       </c>
@@ -3263,25 +3869,28 @@
         <v>47</v>
       </c>
       <c r="AH1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>26</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
@@ -3291,137 +3900,143 @@
       <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AB2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AD2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AE2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AF2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AG2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AH2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AI2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AK2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AL2" s="14" t="s">
+      <c r="AL2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AM2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="14" t="s">
+      <c r="AN2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AQ2" s="15" t="s">
+      <c r="AO2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AR2" s="14" t="s">
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AS2" s="15" t="s">
+      <c r="AS2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="14" t="s">
+      <c r="AT2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="15" t="s">
+      <c r="AU2" s="16" t="s">
         <v>15</v>
       </c>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX2" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -3431,1074 +4046,1152 @@
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="20">
         <v>0.1</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="21">
         <v>29.9</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="20">
         <v>999</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="21">
         <v>23.1</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="22">
         <v>5.3</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="22">
         <v>84</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="20">
         <v>5.4</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="21">
         <v>268.10000000000002</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="20">
         <v>5.3</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="21">
         <v>283.2</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="20">
         <v>5.5</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="21">
         <v>392.1</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="20">
         <v>5.3</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="Q3" s="21">
         <v>42</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="20">
         <v>5.5</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3" s="21">
         <v>37</v>
       </c>
-      <c r="T3" s="19">
+      <c r="T3" s="20">
         <v>5.2</v>
       </c>
-      <c r="U3" s="20">
+      <c r="U3" s="21">
         <v>49</v>
       </c>
-      <c r="V3" s="19">
+      <c r="V3" s="20">
         <v>5.2</v>
       </c>
-      <c r="W3" s="20">
+      <c r="W3" s="21">
         <v>49.2</v>
       </c>
-      <c r="X3" s="19">
+      <c r="X3" s="20">
         <v>5.5</v>
       </c>
-      <c r="Y3" s="20">
+      <c r="Y3" s="21">
         <v>28.9</v>
       </c>
-      <c r="Z3" s="24">
+      <c r="Z3" s="25">
         <v>0</v>
       </c>
-      <c r="AA3" s="25">
+      <c r="AA3" s="26">
         <v>30</v>
       </c>
-      <c r="AB3" s="24">
+      <c r="AB3" s="25">
         <v>6</v>
       </c>
-      <c r="AC3" s="25">
+      <c r="AC3" s="26">
         <v>29</v>
       </c>
-      <c r="AD3" s="24">
+      <c r="AD3" s="25">
         <v>5000</v>
       </c>
-      <c r="AE3" s="25">
+      <c r="AE3" s="26">
         <v>21</v>
       </c>
-      <c r="AF3" s="24">
+      <c r="AF3" s="25">
         <v>49</v>
       </c>
-      <c r="AG3" s="25">
+      <c r="AG3" s="26">
         <v>14</v>
       </c>
-      <c r="AH3" s="23">
+      <c r="AH3" s="25">
         <v>5000</v>
       </c>
-      <c r="AI3" s="22">
+      <c r="AI3" s="26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AJ3" s="24">
+        <v>5000</v>
+      </c>
+      <c r="AK3" s="23">
         <v>2.4</v>
       </c>
-      <c r="AJ3" s="24">
+      <c r="AL3" s="25">
         <v>3800</v>
       </c>
-      <c r="AK3" s="25">
+      <c r="AM3" s="26">
         <v>2.5</v>
       </c>
-      <c r="AL3" s="23">
+      <c r="AN3" s="24">
         <v>5000</v>
       </c>
-      <c r="AM3" s="23">
+      <c r="AO3" s="24">
         <v>82.7</v>
       </c>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23">
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24">
         <v>58</v>
       </c>
-      <c r="AQ3" s="23">
+      <c r="AS3" s="24">
         <v>18</v>
       </c>
-      <c r="AR3">
+      <c r="AT3">
         <v>49</v>
       </c>
-      <c r="AS3">
+      <c r="AU3">
         <v>14</v>
       </c>
-      <c r="AU3">
+      <c r="AW3">
         <v>30</v>
       </c>
-      <c r="AV3">
+      <c r="AX3">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="AU4" t="s">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AW4" t="s">
         <v>27</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AY4" t="s">
         <v>28</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>27</v>
       </c>
       <c r="BA4" t="s">
         <v>27</v>
       </c>
+      <c r="BC4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU5" s="14" t="s">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AW5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AV5" s="15" t="s">
+      <c r="AX5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AW5" s="14" t="s">
+      <c r="AY5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AX5" s="15" t="s">
+      <c r="AZ5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AY5" s="14" t="s">
+      <c r="BA5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AZ5" s="15" t="s">
+      <c r="BB5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="BA5" s="14" t="s">
+      <c r="BC5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="BB5" s="15" t="s">
+      <c r="BD5" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:56" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="AH6" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="27"/>
-      <c r="AL6" s="27"/>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="27"/>
-      <c r="AO6" s="27"/>
-      <c r="AP6" s="27"/>
-      <c r="AQ6" s="27"/>
-      <c r="AR6" s="27"/>
-      <c r="AS6" s="28"/>
-      <c r="AU6" s="23">
+    <row r="6" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="48"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="48"/>
+      <c r="AT6" s="48"/>
+      <c r="AU6" s="48"/>
+      <c r="AV6" s="56"/>
+      <c r="AW6" s="24">
         <v>1000</v>
       </c>
-      <c r="AV6" s="22">
+      <c r="AX6" s="23">
         <v>4</v>
       </c>
-      <c r="AW6" s="23">
+      <c r="AY6" s="24">
         <v>1000</v>
       </c>
-      <c r="AX6" s="22">
+      <c r="AZ6" s="23">
         <v>4.7</v>
       </c>
-      <c r="AY6">
+      <c r="BA6">
         <v>2000</v>
       </c>
-      <c r="AZ6" s="22">
+      <c r="BB6" s="23">
         <v>3</v>
       </c>
-      <c r="BA6">
+      <c r="BC6">
         <v>5000</v>
       </c>
-      <c r="BB6" s="22">
+      <c r="BD6" s="23">
         <v>2.4</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="30"/>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="30"/>
-      <c r="AO7" s="30"/>
-      <c r="AP7" s="30"/>
-      <c r="AQ7" s="30"/>
-      <c r="AR7" s="30"/>
-      <c r="AS7" s="31"/>
-      <c r="AU7" t="s">
+    <row r="7" spans="1:58" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="59"/>
+      <c r="AW7" t="s">
         <v>29</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AY7" t="s">
         <v>30</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="BA7" t="s">
         <v>31</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BC7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
-      <c r="AH8" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
-      <c r="AP8" s="34"/>
-      <c r="AQ8" s="34"/>
-      <c r="AR8" s="34"/>
-      <c r="AS8" s="35"/>
-      <c r="AU8" s="14" t="s">
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="44"/>
+      <c r="AO8" s="44"/>
+      <c r="AP8" s="44"/>
+      <c r="AQ8" s="44"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="44"/>
+      <c r="AT8" s="44"/>
+      <c r="AU8" s="45"/>
+      <c r="AV8" s="48"/>
+      <c r="AW8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AV8" s="15" t="s">
+      <c r="AX8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AW8" s="14" t="s">
+      <c r="AY8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AX8" s="15" t="s">
+      <c r="AZ8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AY8" s="14" t="s">
+      <c r="BA8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AZ8" s="15" t="s">
+      <c r="BB8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="BA8" s="14" t="s">
+      <c r="BC8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="BB8" s="15" t="s">
+      <c r="BD8" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="AH9" s="39" t="s">
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="36" t="s">
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="41" t="s">
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="AQ9" s="41"/>
-      <c r="AR9" s="41"/>
-      <c r="AS9" s="42"/>
-      <c r="AU9" s="24">
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39"/>
+      <c r="AU9" s="61"/>
+      <c r="AV9" s="48"/>
+      <c r="AW9" s="25">
         <v>250</v>
       </c>
-      <c r="AV9" s="25">
+      <c r="AX9" s="26">
         <v>6.6</v>
       </c>
-      <c r="AW9" s="24">
+      <c r="AY9" s="25">
         <v>500</v>
       </c>
-      <c r="AX9" s="25">
+      <c r="AZ9" s="26">
         <v>4.8</v>
       </c>
-      <c r="AY9" s="24">
+      <c r="BA9" s="25">
         <v>830</v>
       </c>
-      <c r="AZ9" s="25">
+      <c r="BB9" s="26">
         <v>3.5</v>
       </c>
-      <c r="BA9" s="24">
+      <c r="BC9" s="25">
         <v>1800</v>
       </c>
-      <c r="BB9" s="25">
+      <c r="BD9" s="26">
         <v>3.4</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="AE10" t="s">
         <v>44</v>
       </c>
-      <c r="AH10" s="14" t="s">
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AI10" s="15" t="s">
+      <c r="AK10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AJ10" s="14" t="s">
+      <c r="AL10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AK10" s="15" t="s">
+      <c r="AM10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AL10" s="14" t="s">
+      <c r="AN10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AM10" s="15" t="s">
+      <c r="AO10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AN10" s="14" t="s">
+      <c r="AP10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AO10" s="15" t="s">
+      <c r="AQ10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AP10" s="14" t="s">
+      <c r="AR10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AQ10" s="15" t="s">
+      <c r="AS10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AR10" s="14" t="s">
+      <c r="AT10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AS10" s="15" t="s">
+      <c r="AU10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AV10" s="48"/>
+      <c r="AW10" t="s">
         <v>33</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AY10" t="s">
         <v>34</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="BA10" t="s">
         <v>36</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BC10" t="s">
         <v>35</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BE10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="AE11" s="14" t="s">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AE11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AF11" s="15" t="s">
+      <c r="AF11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AH11" s="43">
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="28">
         <v>1000</v>
       </c>
-      <c r="AI11" s="32">
+      <c r="AK11" s="32">
         <v>5.9</v>
       </c>
-      <c r="AJ11" s="44">
+      <c r="AL11" s="29">
         <v>5000</v>
       </c>
-      <c r="AK11" s="32">
+      <c r="AM11" s="30">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AL11" s="43">
+      <c r="AN11" s="28">
         <v>1000</v>
       </c>
-      <c r="AM11" s="32">
+      <c r="AO11" s="27">
         <v>7.7</v>
       </c>
-      <c r="AN11" s="44">
+      <c r="AP11" s="29">
         <v>5000</v>
       </c>
-      <c r="AO11" s="32">
+      <c r="AQ11" s="27">
         <v>5.9</v>
       </c>
-      <c r="AP11" s="43">
+      <c r="AR11" s="28">
         <v>1000</v>
       </c>
-      <c r="AQ11" s="32">
+      <c r="AS11" s="33">
         <v>9.1</v>
       </c>
-      <c r="AR11" s="44">
+      <c r="AT11" s="29">
         <v>5000</v>
       </c>
-      <c r="AS11" s="32">
+      <c r="AU11" s="31">
         <v>6.2</v>
       </c>
-      <c r="AU11" s="14" t="s">
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AV11" s="15" t="s">
+      <c r="AX11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AW11" s="14" t="s">
+      <c r="AY11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AX11" s="15" t="s">
+      <c r="AZ11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AY11" s="14" t="s">
+      <c r="BA11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AZ11" s="15" t="s">
+      <c r="BB11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="BA11" s="14" t="s">
+      <c r="BC11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="BB11" s="15" t="s">
+      <c r="BD11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="BC11" s="14" t="s">
+      <c r="BE11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="BD11" s="15" t="s">
+      <c r="BF11" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="15"/>
-      <c r="AE12" s="24">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="16"/>
+      <c r="AE12" s="25">
         <v>0</v>
       </c>
-      <c r="AF12" s="25">
+      <c r="AF12" s="26">
         <v>30</v>
       </c>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="24"/>
-      <c r="AQ12" s="25"/>
-      <c r="AR12" s="24"/>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="25"/>
-      <c r="AU12" s="24">
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="54"/>
+      <c r="AV12" s="48"/>
+      <c r="AW12" s="25">
         <v>1150</v>
       </c>
-      <c r="AV12" s="25">
+      <c r="AX12" s="26">
         <v>3.4</v>
       </c>
-      <c r="AW12" s="24">
+      <c r="AY12" s="25">
         <v>1150</v>
       </c>
-      <c r="AX12" s="25">
+      <c r="AZ12" s="26">
         <v>3.3</v>
       </c>
-      <c r="AY12" s="24">
+      <c r="BA12" s="25">
         <v>1125</v>
       </c>
-      <c r="AZ12" s="25">
+      <c r="BB12" s="26">
         <v>3.9</v>
       </c>
-      <c r="BA12" s="24">
+      <c r="BC12" s="25">
         <v>1100</v>
       </c>
-      <c r="BB12" s="25">
+      <c r="BD12" s="26">
         <v>4.7</v>
       </c>
-      <c r="BC12" s="24">
+      <c r="BE12" s="25">
         <v>1000</v>
       </c>
-      <c r="BD12" s="25">
+      <c r="BF12" s="26">
         <v>5.6</v>
       </c>
     </row>
-    <row r="13" spans="1:56" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AH13" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="34"/>
-      <c r="AP13" s="34"/>
-      <c r="AQ13" s="34"/>
-      <c r="AR13" s="34"/>
-      <c r="AS13" s="35"/>
-      <c r="AU13" t="s">
+    <row r="13" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="50"/>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="50"/>
+      <c r="AU13" s="54"/>
+      <c r="AV13" s="48"/>
+      <c r="AW13" t="s">
         <v>38</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AY13" t="s">
         <v>40</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="BA13" t="s">
         <v>38</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BC13" t="s">
         <v>39</v>
       </c>
-      <c r="BC13" t="s">
+      <c r="BE13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:56" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="AH14" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM14" s="37"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="41" t="s">
-        <v>51</v>
-      </c>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK14" s="41"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="41"/>
+      <c r="AN14" s="41"/>
+      <c r="AO14" s="41"/>
+      <c r="AP14" s="41"/>
       <c r="AQ14" s="41"/>
       <c r="AR14" s="41"/>
-      <c r="AS14" s="42"/>
-      <c r="AU14" s="14" t="s">
+      <c r="AS14" s="41"/>
+      <c r="AT14" s="41"/>
+      <c r="AU14" s="42"/>
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AV14" s="15" t="s">
+      <c r="AX14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AW14" s="14" t="s">
+      <c r="AY14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AX14" s="15" t="s">
+      <c r="AZ14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AY14" s="14" t="s">
+      <c r="BA14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AZ14" s="15" t="s">
+      <c r="BB14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="BA14" s="14" t="s">
+      <c r="BC14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="BB14" s="15" t="s">
+      <c r="BD14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="BC14" s="14" t="s">
+      <c r="BE14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="BD14" s="15" t="s">
+      <c r="BF14" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="AH15" s="14" t="s">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="47"/>
+      <c r="AI15" s="47"/>
+      <c r="AJ15" s="43"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="44"/>
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="44"/>
+      <c r="AQ15" s="44"/>
+      <c r="AR15" s="44"/>
+      <c r="AS15" s="44"/>
+      <c r="AT15" s="44"/>
+      <c r="AU15" s="45"/>
+      <c r="AV15" s="48"/>
+      <c r="AW15" s="25">
+        <v>1000</v>
+      </c>
+      <c r="AX15" s="26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AY15" s="25">
+        <v>2000</v>
+      </c>
+      <c r="AZ15" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BA15" s="25">
+        <v>2000</v>
+      </c>
+      <c r="BB15" s="26">
+        <v>3.7</v>
+      </c>
+      <c r="BC15" s="25">
+        <v>2000</v>
+      </c>
+      <c r="BD15" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="BE15" s="25">
+        <v>2000</v>
+      </c>
+      <c r="BF15" s="26">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="37"/>
+      <c r="AQ16" s="38"/>
+      <c r="AR16" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="39"/>
+      <c r="AU16" s="61"/>
+      <c r="AV16" s="48"/>
+    </row>
+    <row r="17" spans="33:62" x14ac:dyDescent="0.3">
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AI15" s="15" t="s">
+      <c r="AK17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AJ15" s="14" t="s">
+      <c r="AL17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AK15" s="15" t="s">
+      <c r="AM17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AL15" s="14" t="s">
+      <c r="AN17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AM15" s="15" t="s">
+      <c r="AO17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AN15" s="14" t="s">
+      <c r="AP17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AO15" s="15" t="s">
+      <c r="AQ17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AP15" s="14" t="s">
+      <c r="AR17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AQ15" s="15" t="s">
+      <c r="AS17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AR15" s="14" t="s">
+      <c r="AT17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AS15" s="15" t="s">
+      <c r="AU17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AU15" s="24">
+      <c r="AV17" s="48"/>
+      <c r="AW17">
+        <v>50</v>
+      </c>
+      <c r="AY17">
+        <v>75</v>
+      </c>
+      <c r="BA17">
+        <v>100</v>
+      </c>
+      <c r="BC17">
+        <v>125</v>
+      </c>
+      <c r="BE17">
+        <v>150</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="33:62" x14ac:dyDescent="0.3">
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="28">
         <v>1000</v>
       </c>
-      <c r="AV15" s="25">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AW15" s="24">
-        <v>2000</v>
-      </c>
-      <c r="AX15" s="25">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AY15" s="24">
-        <v>2000</v>
-      </c>
-      <c r="AZ15" s="25">
-        <v>3.7</v>
-      </c>
-      <c r="BA15" s="24">
-        <v>2000</v>
-      </c>
-      <c r="BB15" s="25">
-        <v>3.2</v>
-      </c>
-      <c r="BC15" s="24">
-        <v>2000</v>
-      </c>
-      <c r="BD15" s="25">
-        <v>3.2</v>
+      <c r="AK18" s="34">
+        <v>8.9</v>
+      </c>
+      <c r="AL18" s="29">
+        <v>5000</v>
+      </c>
+      <c r="AM18" s="27">
+        <v>6.7</v>
+      </c>
+      <c r="AN18" s="28">
+        <v>1000</v>
+      </c>
+      <c r="AO18" s="33">
+        <v>9.9</v>
+      </c>
+      <c r="AP18" s="29">
+        <v>5000</v>
+      </c>
+      <c r="AQ18" s="31">
+        <v>7.1</v>
+      </c>
+      <c r="AR18" s="28">
+        <v>1000</v>
+      </c>
+      <c r="AS18" s="27">
+        <v>9.4</v>
+      </c>
+      <c r="AT18" s="29">
+        <v>5000</v>
+      </c>
+      <c r="AU18" s="30">
+        <v>6.4</v>
+      </c>
+      <c r="AV18" s="48"/>
+      <c r="AW18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BI18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ18" s="16" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="AH16" s="43">
-        <v>1000</v>
-      </c>
-      <c r="AI16" s="32">
-        <v>5.9</v>
-      </c>
-      <c r="AJ16" s="44">
-        <v>5000</v>
-      </c>
-      <c r="AK16" s="32">
+    <row r="19" spans="33:62" x14ac:dyDescent="0.3">
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="48"/>
+      <c r="AO19" s="48"/>
+      <c r="AP19" s="48"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="48"/>
+      <c r="AS19" s="48"/>
+      <c r="AT19" s="48"/>
+      <c r="AU19" s="52"/>
+      <c r="AV19" s="48"/>
+      <c r="AW19" s="25">
+        <v>900</v>
+      </c>
+      <c r="AX19" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="AY19" s="25">
+        <v>942</v>
+      </c>
+      <c r="AZ19" s="26">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AL16" s="43">
-        <v>1000</v>
-      </c>
-      <c r="AM16" s="32">
-        <v>7.7</v>
-      </c>
-      <c r="AN16" s="44">
-        <v>5000</v>
-      </c>
-      <c r="AO16" s="32">
-        <v>5.9</v>
-      </c>
-      <c r="AP16" s="43">
-        <v>1000</v>
-      </c>
-      <c r="AQ16" s="32">
-        <v>30</v>
-      </c>
-      <c r="AR16" s="44">
-        <v>500</v>
-      </c>
-      <c r="AS16" s="32">
-        <v>30</v>
+      <c r="BA19" s="25">
+        <v>964</v>
+      </c>
+      <c r="BB19" s="26">
+        <v>4.8</v>
+      </c>
+      <c r="BC19" s="25">
+        <v>994</v>
+      </c>
+      <c r="BD19" s="26">
+        <v>5.2</v>
+      </c>
+      <c r="BE19" s="25">
+        <v>996</v>
+      </c>
+      <c r="BF19" s="26">
+        <v>5.2</v>
+      </c>
+      <c r="BG19" s="26">
+        <v>762</v>
+      </c>
+      <c r="BH19" s="26">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="BI19" s="25">
+        <v>3800</v>
+      </c>
+      <c r="BJ19" s="26">
+        <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="34:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU17">
-        <v>50</v>
-      </c>
-      <c r="AW17">
-        <v>75</v>
-      </c>
-      <c r="AY17">
-        <v>100</v>
-      </c>
-      <c r="BA17">
-        <v>125</v>
-      </c>
-      <c r="BC17">
-        <v>150</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>43</v>
-      </c>
+    <row r="20" spans="33:62" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="51"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="48"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="52"/>
+      <c r="AV20" s="48"/>
     </row>
-    <row r="18" spans="34:60" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="AH18" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
-      <c r="AK18" s="27"/>
-      <c r="AL18" s="27"/>
-      <c r="AM18" s="27"/>
-      <c r="AN18" s="27"/>
-      <c r="AO18" s="27"/>
-      <c r="AP18" s="27"/>
-      <c r="AQ18" s="27"/>
-      <c r="AR18" s="27"/>
-      <c r="AS18" s="28"/>
-      <c r="AT18" s="24"/>
-      <c r="AU18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="BA18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="BD18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="BE18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="BF18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="BH18" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="34:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="30"/>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
-      <c r="AQ19" s="30"/>
-      <c r="AR19" s="30"/>
-      <c r="AS19" s="31"/>
-      <c r="AU19" s="24">
-        <v>900</v>
-      </c>
-      <c r="AV19" s="25">
-        <v>5.5</v>
-      </c>
-      <c r="AW19" s="24">
-        <v>942</v>
-      </c>
-      <c r="AX19" s="25">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AY19" s="24">
-        <v>964</v>
-      </c>
-      <c r="AZ19" s="25">
-        <v>4.8</v>
-      </c>
-      <c r="BA19" s="24">
-        <v>994</v>
-      </c>
-      <c r="BB19" s="25">
-        <v>5.2</v>
-      </c>
-      <c r="BC19" s="24">
-        <v>996</v>
-      </c>
-      <c r="BD19" s="25">
-        <v>5.2</v>
-      </c>
-      <c r="BE19" s="25">
-        <v>762</v>
-      </c>
-      <c r="BF19" s="25">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="BG19" s="24">
-        <v>3800</v>
-      </c>
-      <c r="BH19" s="25">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="34:60" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH20" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="34"/>
-      <c r="AN20" s="34"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="34"/>
-      <c r="AQ20" s="34"/>
-      <c r="AR20" s="34"/>
-      <c r="AS20" s="35"/>
-    </row>
-    <row r="21" spans="34:60" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="AH21" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI21" s="40"/>
-      <c r="AJ21" s="40"/>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="37"/>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="41" t="s">
-        <v>51</v>
-      </c>
+    <row r="21" spans="33:62" x14ac:dyDescent="0.3">
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="47"/>
+      <c r="AJ21" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK21" s="41"/>
+      <c r="AL21" s="41"/>
+      <c r="AM21" s="41"/>
+      <c r="AN21" s="41"/>
+      <c r="AO21" s="41"/>
+      <c r="AP21" s="41"/>
       <c r="AQ21" s="41"/>
       <c r="AR21" s="41"/>
-      <c r="AS21" s="42"/>
+      <c r="AS21" s="41"/>
+      <c r="AT21" s="41"/>
+      <c r="AU21" s="42"/>
+      <c r="AV21" s="48"/>
     </row>
-    <row r="22" spans="34:60" x14ac:dyDescent="0.3">
-      <c r="AH22" s="14" t="s">
+    <row r="22" spans="33:62" x14ac:dyDescent="0.3">
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="47"/>
+      <c r="AJ22" s="43"/>
+      <c r="AK22" s="44"/>
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="44"/>
+      <c r="AN22" s="44"/>
+      <c r="AO22" s="44"/>
+      <c r="AP22" s="44"/>
+      <c r="AQ22" s="44"/>
+      <c r="AR22" s="44"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="44"/>
+      <c r="AU22" s="45"/>
+      <c r="AV22" s="48"/>
+    </row>
+    <row r="23" spans="33:62" x14ac:dyDescent="0.3">
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="47"/>
+      <c r="AJ23" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO23" s="37"/>
+      <c r="AP23" s="37"/>
+      <c r="AQ23" s="38"/>
+      <c r="AR23" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS23" s="39"/>
+      <c r="AT23" s="39"/>
+      <c r="AU23" s="61"/>
+      <c r="AV23" s="48"/>
+    </row>
+    <row r="24" spans="33:62" x14ac:dyDescent="0.3">
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AI22" s="15" t="s">
+      <c r="AK24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AJ22" s="14" t="s">
+      <c r="AL24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AK22" s="15" t="s">
+      <c r="AM24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AL22" s="14" t="s">
+      <c r="AN24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AM22" s="15" t="s">
+      <c r="AO24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AN22" s="14" t="s">
+      <c r="AP24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AO22" s="15" t="s">
+      <c r="AQ24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AP22" s="14" t="s">
+      <c r="AR24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AQ22" s="15" t="s">
+      <c r="AS24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AR22" s="14" t="s">
+      <c r="AT24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AS22" s="15" t="s">
+      <c r="AU24" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="AV24" s="48"/>
     </row>
-    <row r="23" spans="34:60" x14ac:dyDescent="0.3">
-      <c r="AH23" s="43">
+    <row r="25" spans="33:62" x14ac:dyDescent="0.3">
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
+      <c r="AJ25" s="28">
         <v>1000</v>
       </c>
-      <c r="AI23" s="32">
-        <v>5.9</v>
-      </c>
-      <c r="AJ23" s="44">
+      <c r="AK25" s="34">
+        <v>5.6</v>
+      </c>
+      <c r="AL25" s="29">
         <v>5000</v>
       </c>
-      <c r="AK23" s="32">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AL23" s="43">
+      <c r="AM25" s="30">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AN25" s="28">
         <v>1000</v>
       </c>
-      <c r="AM23" s="32">
-        <v>7.7</v>
-      </c>
-      <c r="AN23" s="44">
+      <c r="AO25" s="33">
+        <v>7.2</v>
+      </c>
+      <c r="AP25" s="29">
         <v>5000</v>
       </c>
-      <c r="AO23" s="32">
-        <v>5.9</v>
-      </c>
-      <c r="AP23" s="43">
+      <c r="AQ25" s="31">
+        <v>5.3</v>
+      </c>
+      <c r="AR25" s="28">
         <v>1000</v>
       </c>
-      <c r="AQ23" s="32">
-        <v>9.4</v>
-      </c>
-      <c r="AR23" s="44">
+      <c r="AS25" s="27">
+        <v>6.8</v>
+      </c>
+      <c r="AT25" s="29">
         <v>5000</v>
       </c>
-      <c r="AS23" s="32">
-        <v>6.4</v>
-      </c>
+      <c r="AU25" s="62">
+        <v>5.3</v>
+      </c>
+      <c r="AV25" s="48"/>
     </row>
-    <row r="24" spans="34:60" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="34:60" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH25" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="34"/>
-      <c r="AL25" s="34"/>
-      <c r="AM25" s="34"/>
-      <c r="AN25" s="34"/>
-      <c r="AO25" s="34"/>
-      <c r="AP25" s="34"/>
-      <c r="AQ25" s="34"/>
-      <c r="AR25" s="34"/>
-      <c r="AS25" s="35"/>
+    <row r="26" spans="33:62" x14ac:dyDescent="0.3">
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="49"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="49"/>
+      <c r="AU26" s="58"/>
+      <c r="AV26" s="48"/>
     </row>
-    <row r="26" spans="34:60" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="AH26" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM26" s="37"/>
-      <c r="AN26" s="37"/>
-      <c r="AO26" s="38"/>
-      <c r="AP26" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ26" s="41"/>
-      <c r="AR26" s="41"/>
-      <c r="AS26" s="42"/>
+    <row r="28" spans="33:62" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG28" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH28" s="41"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="41"/>
+      <c r="AK28" s="41"/>
+      <c r="AL28" s="41"/>
+      <c r="AM28" s="41"/>
+      <c r="AN28" s="41"/>
+      <c r="AO28" s="41"/>
+      <c r="AP28" s="41"/>
+      <c r="AQ28" s="41"/>
+      <c r="AR28" s="41"/>
+      <c r="AS28" s="41"/>
+      <c r="AT28" s="41"/>
+      <c r="AU28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV28" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="27" spans="34:60" x14ac:dyDescent="0.3">
-      <c r="AH27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI27" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK27" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM27" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO27" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ27" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS27" s="15" t="s">
-        <v>15</v>
+    <row r="29" spans="33:62" x14ac:dyDescent="0.3">
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="44"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="45"/>
+      <c r="AU29" s="29">
+        <v>5000</v>
+      </c>
+      <c r="AV29" s="63">
+        <v>17</v>
       </c>
     </row>
-    <row r="28" spans="34:60" x14ac:dyDescent="0.3">
-      <c r="AH28" s="43">
-        <v>1000</v>
-      </c>
-      <c r="AI28" s="32">
-        <v>5.9</v>
-      </c>
-      <c r="AJ28" s="44">
-        <v>5000</v>
-      </c>
-      <c r="AK28" s="32">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AL28" s="43">
-        <v>1000</v>
-      </c>
-      <c r="AM28" s="32">
-        <v>7.7</v>
-      </c>
-      <c r="AN28" s="44">
-        <v>5000</v>
-      </c>
-      <c r="AO28" s="32">
-        <v>5.9</v>
-      </c>
-      <c r="AP28" s="43">
-        <v>1000</v>
-      </c>
-      <c r="AQ28" s="32">
-        <v>30</v>
-      </c>
-      <c r="AR28" s="44">
-        <v>5000</v>
-      </c>
-      <c r="AS28" s="32">
-        <v>30</v>
-      </c>
+    <row r="30" spans="33:62" x14ac:dyDescent="0.3">
+      <c r="AV30" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AH6:AS7"/>
-    <mergeCell ref="AH13:AS13"/>
-    <mergeCell ref="AH20:AS20"/>
-    <mergeCell ref="AH25:AS25"/>
-    <mergeCell ref="AH8:AS8"/>
-    <mergeCell ref="AH18:AS19"/>
+  <mergeCells count="10">
+    <mergeCell ref="AG28:AT29"/>
+    <mergeCell ref="AG6:AG26"/>
+    <mergeCell ref="AJ6:AV6"/>
+    <mergeCell ref="AV7:AV26"/>
+    <mergeCell ref="AJ26:AU26"/>
+    <mergeCell ref="AJ19:AU20"/>
+    <mergeCell ref="AJ12:AU13"/>
+    <mergeCell ref="AJ7:AU8"/>
+    <mergeCell ref="AJ21:AU22"/>
+    <mergeCell ref="AJ14:AU15"/>
   </mergeCells>
-  <conditionalFormatting sqref="AL2:AO2">
+  <conditionalFormatting sqref="AN2:AQ2">
     <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="min"/>
@@ -4512,7 +5205,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR2:AT2">
+  <conditionalFormatting sqref="AT2:AV2">
     <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="min"/>
@@ -4526,7 +5219,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU2:AV2">
+  <conditionalFormatting sqref="AW2:AX2">
     <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="min"/>
@@ -4540,7 +5233,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP2:AQ2">
+  <conditionalFormatting sqref="AR2:AS2">
     <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="min"/>
@@ -4568,7 +5261,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU8:AV8">
+  <conditionalFormatting sqref="AW8:AX8">
     <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="min"/>
@@ -4582,7 +5275,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY8:AZ8">
+  <conditionalFormatting sqref="BA8:BB8">
     <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="min"/>
@@ -4596,7 +5289,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA8:BB8">
+  <conditionalFormatting sqref="BC8:BD8">
     <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="min"/>
@@ -4610,7 +5303,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW8:AX8">
+  <conditionalFormatting sqref="AY8:AZ8">
     <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="min"/>
@@ -4624,7 +5317,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU9:BB9">
+  <conditionalFormatting sqref="AW9:BD9">
     <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="min"/>
@@ -4638,7 +5331,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU11:AV11">
+  <conditionalFormatting sqref="AW11:AX11">
     <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="min"/>
@@ -4652,7 +5345,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA11:BB11">
+  <conditionalFormatting sqref="BC11:BD11">
     <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="min"/>
@@ -4666,7 +5359,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC11:BD11">
+  <conditionalFormatting sqref="BE11:BF11">
     <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="min"/>
@@ -4680,7 +5373,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW11:AZ11">
+  <conditionalFormatting sqref="AY11:BB11">
     <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="min"/>
@@ -4694,7 +5387,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU12:BD12">
+  <conditionalFormatting sqref="AW12:BF12">
     <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="min"/>
@@ -4736,21 +5429,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT18">
-    <cfRule type="dataBar" priority="127">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E90470A4-D156-4642-BC67-F7A21ED84889}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY14:AZ14">
+  <conditionalFormatting sqref="BA14:BB14">
     <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="min"/>
@@ -4764,7 +5443,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU14:AV14">
+  <conditionalFormatting sqref="AW14:AX14">
     <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="min"/>
@@ -4778,7 +5457,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU14:AV14">
+  <conditionalFormatting sqref="AW14:AX14">
     <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="min"/>
@@ -4792,7 +5471,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW14:AX14">
+  <conditionalFormatting sqref="AY14:AZ14">
     <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="min"/>
@@ -4806,7 +5485,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW15:AX15">
+  <conditionalFormatting sqref="AY15:AZ15">
     <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="min"/>
@@ -4820,7 +5499,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC14:BD14">
+  <conditionalFormatting sqref="BE14:BF14">
     <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="min"/>
@@ -4834,7 +5513,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU15:AV15 AY15:AZ15 BC15:BD15">
+  <conditionalFormatting sqref="AW15:AX15 BA15:BB15 BE15:BF15">
     <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="min"/>
@@ -4848,7 +5527,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA14:BB14">
+  <conditionalFormatting sqref="BC14:BD14">
     <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="min"/>
@@ -4862,7 +5541,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA15:BB15">
+  <conditionalFormatting sqref="BC15:BD15">
     <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="min"/>
@@ -4876,7 +5555,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY18:AZ18">
+  <conditionalFormatting sqref="BA18:BB18">
     <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="min"/>
@@ -4890,7 +5569,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU18:AV18">
+  <conditionalFormatting sqref="AW18:AX18">
     <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
@@ -4904,7 +5583,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW18:AX18">
+  <conditionalFormatting sqref="AY18:AZ18">
     <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="min"/>
@@ -4918,7 +5597,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW19:AX19">
+  <conditionalFormatting sqref="AY19:AZ19">
     <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="min"/>
@@ -4932,7 +5611,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY19:AZ19 AU19:AV19">
+  <conditionalFormatting sqref="BA19:BB19 AW19:AX19">
     <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
@@ -4946,7 +5625,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY18:AZ18">
+  <conditionalFormatting sqref="BA18:BB18">
     <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="min"/>
@@ -4960,7 +5639,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY19:AZ19">
+  <conditionalFormatting sqref="BA19:BB19">
     <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
@@ -4974,7 +5653,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG18:BH18">
+  <conditionalFormatting sqref="BI18:BJ18">
     <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="min"/>
@@ -4988,7 +5667,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG19:BH19">
+  <conditionalFormatting sqref="BI19:BJ19">
     <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="min"/>
@@ -5002,7 +5681,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG18:BH18">
+  <conditionalFormatting sqref="BI18:BJ18">
     <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="min"/>
@@ -5016,7 +5695,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG19:BH19">
+  <conditionalFormatting sqref="BI19:BJ19">
     <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="min"/>
@@ -5030,7 +5709,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC18:BD18">
+  <conditionalFormatting sqref="BE18:BF18">
     <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
@@ -5044,7 +5723,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC19:BD19">
+  <conditionalFormatting sqref="BE19:BF19">
     <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="min"/>
@@ -5058,7 +5737,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC18:BD18">
+  <conditionalFormatting sqref="BE18:BF18">
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
@@ -5072,7 +5751,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC19:BD19">
+  <conditionalFormatting sqref="BE19:BF19">
     <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="min"/>
@@ -5086,7 +5765,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA18:BB18">
+  <conditionalFormatting sqref="BC18:BD18">
     <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="min"/>
@@ -5100,7 +5779,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA19:BB19 BE19:BF19">
+  <conditionalFormatting sqref="BC19:BD19 BG19:BH19">
     <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="min"/>
@@ -5114,7 +5793,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE18:BF18">
+  <conditionalFormatting sqref="BG18:BH18">
     <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
@@ -5128,7 +5807,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE18:BF18">
+  <conditionalFormatting sqref="BG18:BH18">
     <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="min"/>
@@ -5142,7 +5821,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU5:AV5">
+  <conditionalFormatting sqref="AW5:AX5">
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
@@ -5156,7 +5835,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY5:AZ5">
+  <conditionalFormatting sqref="BA5:BB5">
     <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
@@ -5170,7 +5849,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA5:BB5">
+  <conditionalFormatting sqref="BC5:BD5">
     <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
@@ -5184,7 +5863,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW5:AX5">
+  <conditionalFormatting sqref="AY5:AZ5">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
@@ -5212,7 +5891,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AK2">
+  <conditionalFormatting sqref="AL2:AM2">
     <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
@@ -5226,7 +5905,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ3:AK3 AD3:AE3">
+  <conditionalFormatting sqref="AL3:AM3 AD3:AE3">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -5240,7 +5919,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AI2">
+  <conditionalFormatting sqref="AJ2:AK2">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -5254,7 +5933,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AG2">
+  <conditionalFormatting sqref="AF2:AI2">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
@@ -5268,7 +5947,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF3:AG3">
+  <conditionalFormatting sqref="AF3:AI3">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
@@ -5366,20 +6045,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT12">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{252A78A5-5790-4106-AF2F-5425B5C554D3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5395,7 +6060,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AL2:AO2</xm:sqref>
+          <xm:sqref>AN2:AQ2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E790A108-F7C1-4C52-8130-D8736945A723}">
@@ -5406,7 +6071,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AR2:AT2</xm:sqref>
+          <xm:sqref>AT2:AV2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AED5C08D-3E71-40EE-90E6-8722DB1527D9}">
@@ -5417,7 +6082,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AU2:AV2</xm:sqref>
+          <xm:sqref>AW2:AX2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A888B732-036D-4F62-9F4B-026CDBBFBD0D}">
@@ -5428,7 +6093,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AP2:AQ2</xm:sqref>
+          <xm:sqref>AR2:AS2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1DBADD34-30A4-4911-A555-4357F61D0A60}">
@@ -5450,7 +6115,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AU8:AV8</xm:sqref>
+          <xm:sqref>AW8:AX8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BF41340E-AF8E-4CA6-9FF1-9D19F340A6F7}">
@@ -5461,7 +6126,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AY8:AZ8</xm:sqref>
+          <xm:sqref>BA8:BB8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E51992EE-BB48-47E0-80B3-9D51AE1E236D}">
@@ -5472,7 +6137,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BA8:BB8</xm:sqref>
+          <xm:sqref>BC8:BD8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{67548DC6-36C0-4C38-89B6-A26EB0AC8A7E}">
@@ -5483,7 +6148,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AW8:AX8</xm:sqref>
+          <xm:sqref>AY8:AZ8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D0ED108F-FD56-4B03-9D2F-A2F613740713}">
@@ -5494,7 +6159,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AU9:BB9</xm:sqref>
+          <xm:sqref>AW9:BD9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1E105B14-B5D5-4D48-A7AD-D0B123F56117}">
@@ -5505,7 +6170,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AU11:AV11</xm:sqref>
+          <xm:sqref>AW11:AX11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8E41BA30-01AC-4430-9EBE-3BFB87E0E43C}">
@@ -5516,7 +6181,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BA11:BB11</xm:sqref>
+          <xm:sqref>BC11:BD11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{46E7E097-6D7C-4274-96CD-038023DFBB8F}">
@@ -5527,7 +6192,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BC11:BD11</xm:sqref>
+          <xm:sqref>BE11:BF11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C4E8421E-C528-4430-99D1-9AE85F416844}">
@@ -5538,7 +6203,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AW11:AZ11</xm:sqref>
+          <xm:sqref>AY11:BB11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{567CCF86-4005-432A-BE43-CB08D7040D0C}">
@@ -5549,7 +6214,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AU12:BD12</xm:sqref>
+          <xm:sqref>AW12:BF12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4A2848AA-7F83-4693-9924-1A8BCD16781D}">
@@ -5574,7 +6239,7 @@
           <xm:sqref>AA13:AB13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E90470A4-D156-4642-BC67-F7A21ED84889}">
+          <x14:cfRule type="dataBar" id="{10A5FEF2-DEC0-4C63-A062-BC10AC706966}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5582,10 +6247,32 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AT18</xm:sqref>
+          <xm:sqref>BA14:BB14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{10A5FEF2-DEC0-4C63-A062-BC10AC706966}">
+          <x14:cfRule type="dataBar" id="{8C9C8FED-1B22-44F9-AB3A-68BE470B8F51}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AW14:AX14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8956A1B6-5B8D-4B61-A3E2-2C6FBCE78250}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AW14:AX14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8B357AD1-8D9E-4B76-8569-7B6BAC14CC38}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5596,39 +6283,6 @@
           <xm:sqref>AY14:AZ14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8C9C8FED-1B22-44F9-AB3A-68BE470B8F51}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>AU14:AV14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8956A1B6-5B8D-4B61-A3E2-2C6FBCE78250}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>AU14:AV14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8B357AD1-8D9E-4B76-8569-7B6BAC14CC38}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>AW14:AX14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FBAEFBCD-C5FB-4D17-AF77-E09D70EE74B9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -5637,7 +6291,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AW15:AX15</xm:sqref>
+          <xm:sqref>AY15:AZ15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{56630904-8F71-49F9-96E5-ABAD1A2730C1}">
@@ -5648,7 +6302,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BC14:BD14</xm:sqref>
+          <xm:sqref>BE14:BF14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F416BF53-CA76-42EC-88EC-94A2C5608728}">
@@ -5659,7 +6313,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AU15:AV15 AY15:AZ15 BC15:BD15</xm:sqref>
+          <xm:sqref>AW15:AX15 BA15:BB15 BE15:BF15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0E5F4D29-6840-4585-BC4B-B882A3C15981}">
@@ -5670,7 +6324,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BA14:BB14</xm:sqref>
+          <xm:sqref>BC14:BD14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4ED4B50A-304B-44D4-93D2-3D8D4ED76BB2}">
@@ -5681,7 +6335,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BA15:BB15</xm:sqref>
+          <xm:sqref>BC15:BD15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{54708739-2CFB-411B-9E2E-D6037C380312}">
@@ -5692,7 +6346,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AY18:AZ18</xm:sqref>
+          <xm:sqref>BA18:BB18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{731666D1-6C08-4FC7-9AB9-279FF0DC0C3A}">
@@ -5703,7 +6357,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AU18:AV18</xm:sqref>
+          <xm:sqref>AW18:AX18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D678DD7-A246-40AC-AEDE-0D657E9AB2B4}">
@@ -5714,7 +6368,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AW18:AX18</xm:sqref>
+          <xm:sqref>AY18:AZ18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D82B8E41-2AAF-45F2-97CE-217D0F9E48A4}">
@@ -5725,7 +6379,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AW19:AX19</xm:sqref>
+          <xm:sqref>AY19:AZ19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{48C9EB7B-75FF-4E24-82FD-1D3D288CACCC}">
@@ -5736,7 +6390,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AY19:AZ19 AU19:AV19</xm:sqref>
+          <xm:sqref>BA19:BB19 AW19:AX19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EF70D438-3DCA-4CD3-B666-66ED91F34F4E}">
@@ -5747,7 +6401,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AY18:AZ18</xm:sqref>
+          <xm:sqref>BA18:BB18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D7DC478F-0670-4248-B236-BB39E5EAD195}">
@@ -5758,7 +6412,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AY19:AZ19</xm:sqref>
+          <xm:sqref>BA19:BB19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85597A41-BD1B-421F-9401-A1887DE0363D}">
@@ -5769,7 +6423,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BG18:BH18</xm:sqref>
+          <xm:sqref>BI18:BJ18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3273EAB0-CFD8-4749-93F6-18202DF988A3}">
@@ -5780,7 +6434,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BG19:BH19</xm:sqref>
+          <xm:sqref>BI19:BJ19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1ED5E8BC-703F-4E83-B167-7229EDC728E7}">
@@ -5791,7 +6445,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BG18:BH18</xm:sqref>
+          <xm:sqref>BI18:BJ18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C6027F08-B0D0-4BF8-B234-22563627BC17}">
@@ -5802,7 +6456,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BG19:BH19</xm:sqref>
+          <xm:sqref>BI19:BJ19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1738D467-1C91-4A12-8E26-2DF0446CD0D6}">
@@ -5813,7 +6467,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BC18:BD18</xm:sqref>
+          <xm:sqref>BE18:BF18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A8FE52A0-9789-44CB-82FA-191B538CCD4B}">
@@ -5824,7 +6478,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BC19:BD19</xm:sqref>
+          <xm:sqref>BE19:BF19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B1D9010C-1203-49BF-B93A-48077ADBDF99}">
@@ -5835,7 +6489,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BC18:BD18</xm:sqref>
+          <xm:sqref>BE18:BF18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{10FA59DC-F216-4904-B24B-9D0A18FDE557}">
@@ -5846,7 +6500,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BC19:BD19</xm:sqref>
+          <xm:sqref>BE19:BF19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{807AC27C-59DB-4AEC-8F6E-91824E5247BB}">
@@ -5857,7 +6511,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BA18:BB18</xm:sqref>
+          <xm:sqref>BC18:BD18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3939D0C4-8A77-40FE-9887-FA0AA889961E}">
@@ -5868,7 +6522,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BA19:BB19 BE19:BF19</xm:sqref>
+          <xm:sqref>BC19:BD19 BG19:BH19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B9FA1C94-3F9C-4412-B9AA-6A9E2912BC91}">
@@ -5879,7 +6533,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BE18:BF18</xm:sqref>
+          <xm:sqref>BG18:BH18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3814BA45-8A9B-4D86-9F64-51D7C0685684}">
@@ -5890,7 +6544,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BE18:BF18</xm:sqref>
+          <xm:sqref>BG18:BH18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A7F7F975-E613-4537-B6D1-C5724976EFD5}">
@@ -5901,7 +6555,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AU5:AV5</xm:sqref>
+          <xm:sqref>AW5:AX5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CA22190F-8B4E-4984-B727-31C75776958B}">
@@ -5912,7 +6566,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AY5:AZ5</xm:sqref>
+          <xm:sqref>BA5:BB5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F6D43F7A-8C79-45C1-BD7F-9DE6EC2B1091}">
@@ -5923,7 +6577,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BA5:BB5</xm:sqref>
+          <xm:sqref>BC5:BD5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0A03EE91-375F-4277-A9DF-61714D0ADCDA}">
@@ -5934,7 +6588,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AW5:AX5</xm:sqref>
+          <xm:sqref>AY5:AZ5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AAAB5E87-35FD-4F28-BD48-1A29E963839F}">
@@ -5956,7 +6610,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AJ2:AK2</xm:sqref>
+          <xm:sqref>AL2:AM2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DC542AA1-5929-44D8-8C1C-9DA7C73EA356}">
@@ -5967,7 +6621,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AJ3:AK3 AD3:AE3</xm:sqref>
+          <xm:sqref>AL3:AM3 AD3:AE3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{61E6B4CC-7054-430E-A3BF-8201D320DD03}">
@@ -5978,7 +6632,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AH2:AI2</xm:sqref>
+          <xm:sqref>AJ2:AK2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5D4FC378-7B51-41F8-BE89-71BF6D912CD9}">
@@ -5989,7 +6643,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AF2:AG2</xm:sqref>
+          <xm:sqref>AF2:AI2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{300F61F6-4BAE-4ECD-B402-A85A24670AA3}">
@@ -6000,7 +6654,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AF3:AG3</xm:sqref>
+          <xm:sqref>AF3:AI3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C77F9522-E94B-474C-AC8B-B9219F1ECD39}">
@@ -6068,17 +6722,6 @@
           </x14:cfRule>
           <xm:sqref>Z3:AA3</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{252A78A5-5790-4106-AF2F-5425B5C554D3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>AT12</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
